--- a/OpAmp-BOM.xlsx
+++ b/OpAmp-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -76,31 +76,55 @@
     <t xml:space="preserve">C2500</t>
   </si>
   <si>
-    <t xml:space="preserve">Conn_01x05</t>
+    <t xml:space="preserve">Conn_01x07</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x05_Pitch2.54mm</t>
+    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x07_Pitch2.54mm</t>
   </si>
   <si>
     <t xml:space="preserve">Conn_01x02</t>
   </si>
   <si>
-    <t xml:space="preserve">J2,J3,J4</t>
+    <t xml:space="preserve">J2,J3</t>
   </si>
   <si>
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02_Pitch2.54mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1,Q7,Q4,Q11,Q9,Q12,Q13,Q15</t>
+    <t xml:space="preserve">Q1,Q4,Q7,Q9,Q11,Q13,Q15</t>
   </si>
   <si>
     <t xml:space="preserve">C2145</t>
   </si>
   <si>
-    <t xml:space="preserve">Q8,Q5,Q2,Q10,Q14,Q16</t>
+    <t xml:space="preserve">TIP42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_SOT_Packages_THT:TO-220-3_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2N3904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_SOT_Packages_THT:TO-92_Inline_Wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIP41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2,Q5,Q8,Q10,Q14,Q16</t>
   </si>
   <si>
     <t xml:space="preserve">C8326</t>
@@ -127,10 +151,22 @@
     <t xml:space="preserve">C17520</t>
   </si>
   <si>
+    <t xml:space="preserve">22R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12,R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistors_SMD:R_1206_HandSoldering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17958</t>
+  </si>
+  <si>
     <t xml:space="preserve">680R</t>
   </si>
   <si>
-    <t xml:space="preserve">R2,R4,R15,R14</t>
+    <t xml:space="preserve">R2,R4,R14,R15</t>
   </si>
   <si>
     <t xml:space="preserve">C17798</t>
@@ -139,7 +175,7 @@
     <t xml:space="preserve">150R</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,R1</t>
+    <t xml:space="preserve">R1,R3</t>
   </si>
   <si>
     <t xml:space="preserve">C17471</t>
@@ -157,16 +193,13 @@
     <t xml:space="preserve">100k</t>
   </si>
   <si>
-    <t xml:space="preserve">R7,R6</t>
+    <t xml:space="preserve">R6,R7</t>
   </si>
   <si>
     <t xml:space="preserve">C17407</t>
   </si>
   <si>
-    <t xml:space="preserve">22R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8,R12,R13</t>
+    <t xml:space="preserve">R8</t>
   </si>
   <si>
     <t xml:space="preserve">C17561</t>
@@ -264,8 +297,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,35 +319,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -407,30 +444,24 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5401</v>
+      <c r="A9" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -442,63 +473,60 @@
         <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5401</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>46</v>
@@ -512,7 +540,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>49</v>
@@ -526,7 +554,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>52</v>
@@ -540,24 +568,80 @@
         <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
